--- a/WorkingFolder/Tables/macro_corr_HHinc_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_HHinc_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>mean:incvar for low</t>
   </si>
@@ -34,163 +34,106 @@
     <t>mean:incskew for high</t>
   </si>
   <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
     <t>0.14</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.3**</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
   <si>
     <t>0.09</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.33***</t>
-  </si>
-  <si>
-    <t>-0.07</t>
+    <t>-0.24*</t>
   </si>
   <si>
     <t>0.18</t>
   </si>
   <si>
-    <t>0.06</t>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.19</t>
   </si>
   <si>
     <t>0.16</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.31***</t>
-  </si>
-  <si>
-    <t>-0.2*</t>
-  </si>
-  <si>
-    <t>0.21*</t>
-  </si>
-  <si>
-    <t>0.23*</t>
-  </si>
-  <si>
-    <t>0.26**</t>
-  </si>
-  <si>
-    <t>0.27**</t>
-  </si>
-  <si>
-    <t>-0.32***</t>
-  </si>
-  <si>
-    <t>0.25**</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.28**</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.3**</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
-  </si>
-  <si>
-    <t>0.08</t>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>-0.29**</t>
   </si>
   <si>
     <t>-0.26**</t>
   </si>
   <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>-0.39***</t>
-  </si>
-  <si>
-    <t>-0.31**</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.43***</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.4***</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>-0.11</t>
+    <t>0.07</t>
   </si>
 </sst>
 </file>
@@ -548,294 +491,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
       <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr_HHinc_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_HHinc_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>mean:incvar for low</t>
   </si>
@@ -34,106 +34,154 @@
     <t>mean:incskew for high</t>
   </si>
   <si>
-    <t>0.02</t>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.2*</t>
+  </si>
+  <si>
+    <t>0.26**</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.25**</t>
+  </si>
+  <si>
+    <t>0.22*</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.27**</t>
+  </si>
+  <si>
+    <t>-0.33***</t>
+  </si>
+  <si>
+    <t>-0.4***</t>
+  </si>
+  <si>
+    <t>-0.43***</t>
+  </si>
+  <si>
+    <t>-0.39***</t>
   </si>
   <si>
     <t>0.08</t>
   </si>
   <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.28**</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>0.13</t>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.34***</t>
+  </si>
+  <si>
+    <t>-0.29**</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>0.3**</t>
+  </si>
+  <si>
+    <t>0.24**</t>
+  </si>
+  <si>
+    <t>0.24*</t>
+  </si>
+  <si>
+    <t>0.31**</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.04</t>
   </si>
   <si>
     <t>-0.03</t>
   </si>
   <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.16</t>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-0.31**</t>
+  </si>
+  <si>
+    <t>-0.26**</t>
   </si>
   <si>
     <t>-0.17</t>
   </si>
   <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>0.3**</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>-0.29**</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
-  </si>
-  <si>
-    <t>0.07</t>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.18</t>
   </si>
 </sst>
 </file>
@@ -525,19 +573,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -548,19 +596,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -571,19 +619,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -594,19 +642,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -617,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -640,19 +688,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -663,19 +711,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -686,19 +734,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -709,19 +757,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -732,19 +780,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -755,19 +803,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -778,19 +826,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr_HHinc_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_HHinc_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>mean:incvar for low</t>
   </si>
@@ -34,154 +34,109 @@
     <t>mean:incskew for high</t>
   </si>
   <si>
+    <t>0.06</t>
+  </si>
+  <si>
     <t>0.12</t>
   </si>
   <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.29**</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
     <t>0.18</t>
   </si>
   <si>
-    <t>0.2*</t>
-  </si>
-  <si>
-    <t>0.26**</t>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.07</t>
   </si>
   <si>
     <t>0.19</t>
   </si>
   <si>
-    <t>0.25**</t>
-  </si>
-  <si>
-    <t>0.22*</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
     <t>-0.33***</t>
   </si>
   <si>
-    <t>-0.4***</t>
-  </si>
-  <si>
-    <t>-0.43***</t>
-  </si>
-  <si>
-    <t>-0.39***</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.28**</t>
-  </si>
-  <si>
-    <t>0.09</t>
+    <t>-0.26**</t>
+  </si>
+  <si>
+    <t>-0.24*</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.18</t>
   </si>
   <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.34***</t>
-  </si>
-  <si>
-    <t>-0.29**</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>0.3**</t>
-  </si>
-  <si>
-    <t>0.24**</t>
-  </si>
-  <si>
-    <t>0.24*</t>
-  </si>
-  <si>
-    <t>0.31**</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.31**</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>-0.18</t>
+    <t>-0.25*</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.2*</t>
   </si>
 </sst>
 </file>
@@ -573,19 +528,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -596,19 +551,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -619,19 +574,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -642,19 +597,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -665,19 +620,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -685,22 +640,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -708,22 +663,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -731,22 +686,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -754,22 +709,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -777,22 +732,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -800,22 +755,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -823,22 +778,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr_HHinc_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_HHinc_gr.xlsx
@@ -34,109 +34,109 @@
     <t>mean:incskew for high</t>
   </si>
   <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.24**</t>
+  </si>
+  <si>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
     <t>0.06</t>
   </si>
   <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.31***</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.11</t>
+    <t>-0.25**</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.04</t>
   </si>
   <si>
     <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.29**</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>-0.25*</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.2*</t>
   </si>
 </sst>
 </file>
@@ -528,19 +528,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -551,19 +551,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -574,19 +574,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -597,19 +597,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -620,19 +620,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -640,22 +640,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -663,22 +663,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -689,19 +689,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -712,19 +712,19 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -735,19 +735,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -758,19 +758,19 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -781,19 +781,19 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
